--- a/pubmed_UA_results_Q1-Q4.xlsx
+++ b/pubmed_UA_results_Q1-Q4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t xml:space="preserve">All Queries are UA (Uncompressed Array)</t>
   </si>
@@ -28,8 +28,7 @@
     <t xml:space="preserve">Notes:
 Q1-Q4, the first four-out-of-five queries in the paper
 Trials used different IDs to get a more general result
-Trial times are in milliseconds (ms) for Q1-Q4 or seconds (sec)  
-Each trial represents 3 individual runs</t>
+Trial times are in milliseconds (ms) for Q1-Q4 or seconds (sec) </t>
   </si>
   <si>
     <t xml:space="preserve">Mesh only</t>
@@ -113,25 +112,25 @@
     <t xml:space="preserve">Term IDs for Q3,Q4</t>
   </si>
   <si>
-    <t xml:space="preserve">90725,1570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90725,2584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1570,2584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4446,535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4446,1478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">535,1478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7608,3646</t>
+    <t xml:space="preserve">1570, 2584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4446, 1478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4446, 535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">535, 1478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7608, 3646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90725, 1570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90725, 2584</t>
   </si>
   <si>
     <t xml:space="preserve">Mesh + supplemental</t>
@@ -140,31 +139,28 @@
     <t xml:space="preserve">Trial 4 (ms)</t>
   </si>
   <si>
-    <t xml:space="preserve">Avg of 5 trials (slowest and fastest thrown out) (ms)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Term ID pairs for Q3,Q4</t>
   </si>
   <si>
-    <t xml:space="preserve">879,254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">879,7041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">254,7041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1412,10350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10350,17630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231,4366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1130,2994</t>
+    <t xml:space="preserve">10350, 17630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1130, 2994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1412, 10350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231, 4366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">254, 7041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">879, 254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">879, 7041</t>
   </si>
 </sst>
 </file>
@@ -357,19 +353,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -464,21 +460,21 @@
   </sheetPr>
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5459183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4540816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.9591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.7091836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="47.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.9387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.1377551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4897959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.7755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="12.4183673469388"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -639,36 +635,29 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="n">
-        <f aca="false">(177.164+176.575+176.588)/3</f>
-        <v>176.775666666667</v>
+        <v>177.164</v>
       </c>
       <c r="C14" s="5" t="n">
-        <f aca="false">(449.472+449.212+448.511)/3</f>
-        <v>449.065</v>
+        <v>449.472</v>
       </c>
       <c r="D14" s="5" t="n">
-        <f aca="false">(305.715+306.625+306.141)/3</f>
-        <v>306.160333333333</v>
+        <v>305.715</v>
       </c>
       <c r="E14" s="5" t="n">
-        <f aca="false">(341.391+340.294+342.225)/3</f>
-        <v>341.303333333333</v>
+        <v>341.391</v>
       </c>
       <c r="F14" s="5" t="n">
-        <f aca="false">(357.396+356.486+358.55)/3</f>
-        <v>357.477333333333</v>
+        <v>357.396</v>
       </c>
       <c r="G14" s="6" t="n">
-        <f aca="false">(63.6883+63.4939+63.5774)/3</f>
-        <v>63.5865333333333</v>
+        <v>63.6883</v>
       </c>
       <c r="H14" s="5" t="n">
-        <f aca="false">(263.496+263.495+262.93)/3</f>
-        <v>263.307</v>
+        <v>263.496</v>
       </c>
       <c r="I14" s="7" t="n">
         <f aca="false">SUM(B14:H14)/7</f>
-        <v>279.667885714286</v>
+        <v>279.760328571429</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,27 +665,29 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="n">
-        <f aca="false">(304.717+304.769+305.466)/3</f>
-        <v>304.984</v>
+        <v>304.717</v>
       </c>
       <c r="C15" s="5" t="n">
-        <f aca="false">(861.215+858.852+862.732)/3</f>
-        <v>860.933</v>
+        <v>861.215</v>
       </c>
       <c r="D15" s="5" t="n">
-        <f aca="false">(568.676+569.81+569.067)/3</f>
-        <v>569.184333333333</v>
+        <v>568.676</v>
       </c>
       <c r="E15" s="5" t="n">
-        <f aca="false">(620.544+620.884+620.507)/3</f>
-        <v>620.645</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
+        <v>620.544</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>676.358</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>78.945</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>454.206</v>
+      </c>
       <c r="I15" s="7" t="n">
         <f aca="false">SUM(B15:H15)/7</f>
-        <v>336.53519047619</v>
+        <v>509.237285714286</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,18 +695,29 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="n">
-        <f aca="false">(260.422+260.055+260.437)/3</f>
-        <v>260.304666666667</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
+        <v>260.422</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>527.013</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>371.576</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>366.893</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>403.599</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>78.7156</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>332.175</v>
+      </c>
       <c r="I16" s="7" t="n">
         <f aca="false">SUM(B16:H16)/7</f>
-        <v>37.186380952381</v>
+        <v>334.341942857143</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,18 +725,29 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="n">
-        <f aca="false">(163.704+161.198+163.949)/3</f>
-        <v>162.950333333333</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5"/>
+        <v>163.704</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>401.56</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>265.851</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>295.566</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>362.482</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>78.5398</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>269.423</v>
+      </c>
       <c r="I17" s="7" t="n">
         <f aca="false">SUM(B17:H17)/7</f>
-        <v>23.2786190476191</v>
+        <v>262.446542857143</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,73 +759,126 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="7" t="n">
-        <f aca="false">SUM(B18:H18)/7</f>
-        <v>0</v>
-      </c>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="B19" s="5" t="n">
+        <v>599.175</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>1668.09</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1093.46</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>1261.51</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>1320.93</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>134.492</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>959.772</v>
+      </c>
       <c r="I19" s="7" t="n">
         <f aca="false">SUM(B19:H19)/7</f>
-        <v>0</v>
+        <v>1005.347</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="B20" s="5" t="n">
+        <v>682.646</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>1948.22</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1254.02</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>1465.23</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1516.48</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>147.065</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>1103.53</v>
+      </c>
       <c r="I20" s="7" t="n">
         <f aca="false">SUM(B20:H20)/7</f>
-        <v>0</v>
+        <v>1159.59871428571</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="B21" s="5" t="n">
+        <v>545.3</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>1248.59</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>811.37</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>879.022</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>908.483</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>148.237</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>767.573</v>
+      </c>
       <c r="I21" s="7" t="n">
         <f aca="false">SUM(B21:H21)/7</f>
-        <v>0</v>
+        <v>758.367857142857</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="B22" s="5" t="n">
+        <v>340.752</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>893.075</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>566.034</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>644.161</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>784.397</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>150.441</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>570.883</v>
+      </c>
       <c r="I22" s="7" t="n">
         <f aca="false">SUM(B22:H22)/7</f>
-        <v>0</v>
+        <v>564.249</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -824,73 +890,126 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="7" t="n">
-        <f aca="false">SUM(B23:H23)/7</f>
-        <v>0</v>
-      </c>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="B24" s="5" t="n">
+        <v>88.8644</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>27.0305</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>96.255</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>114.507</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>26.5557</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>61.464</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>28.5918</v>
+      </c>
       <c r="I24" s="7" t="n">
         <f aca="false">SUM(B24:H24)/7</f>
-        <v>0</v>
+        <v>63.3240571428571</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="B25" s="5" t="n">
+        <v>101.265</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>27.2734</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>96.6841</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>126.662</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>26.8189</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>61.7173</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>28.6505</v>
+      </c>
       <c r="I25" s="7" t="n">
         <f aca="false">SUM(B25:H25)/7</f>
-        <v>0</v>
+        <v>67.0101714285714</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="B26" s="5" t="n">
+        <v>85.4366</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>27.0577</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>94.9344</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>110.489</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>26.695</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>62.0457</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>28.7462</v>
+      </c>
       <c r="I26" s="7" t="n">
         <f aca="false">SUM(B26:H26)/7</f>
-        <v>0</v>
+        <v>62.2006571428572</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="B27" s="5" t="n">
+        <v>74.6112</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>27.4512</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>94.4324</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>102.182</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>26.7453</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>62.005</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>28.9192</v>
+      </c>
       <c r="I27" s="7" t="n">
         <f aca="false">SUM(B27:H27)/7</f>
-        <v>0</v>
+        <v>59.4780428571429</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,73 +1021,126 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="7" t="n">
-        <f aca="false">SUM(B28:H28)/7</f>
-        <v>0</v>
-      </c>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="B29" s="5" t="n">
+        <v>105.208</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>1.59507</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>73.7227</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>129.747</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>1.31717</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>34.53</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>1.24726</v>
+      </c>
       <c r="I29" s="7" t="n">
         <f aca="false">SUM(B29:H29)/7</f>
-        <v>0</v>
+        <v>49.6238857142857</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="B30" s="5" t="n">
+        <v>123.219</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>1.98092</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>74.932</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>148.032</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>1.53619</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>34.429</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <v>1.24599</v>
+      </c>
       <c r="I30" s="7" t="n">
         <f aca="false">SUM(B30:H30)/7</f>
-        <v>0</v>
+        <v>55.0535857142857</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="B31" s="5" t="n">
+        <v>111.454</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>1.90441</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>74.2774</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>136.087</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>1.49949</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>34.4597</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <v>1.24599</v>
+      </c>
       <c r="I31" s="7" t="n">
         <f aca="false">SUM(B31:H31)/7</f>
-        <v>0</v>
+        <v>51.5611414285714</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="B32" s="5" t="n">
+        <v>86.1379</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>1.64665</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>71.7187</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>110.254</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>1.43729</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>34.955</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <v>1.32628</v>
+      </c>
       <c r="I32" s="7" t="n">
         <f aca="false">SUM(B32:H32)/7</f>
-        <v>0</v>
+        <v>43.9251171428571</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1075,261 +1247,533 @@
       <c r="H38" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I38" s="16" t="s">
-        <v>38</v>
+      <c r="I38" s="15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="16"/>
+      <c r="B39" s="16" t="n">
+        <v>1482.33</v>
+      </c>
+      <c r="C39" s="16" t="n">
+        <v>1438.17</v>
+      </c>
+      <c r="D39" s="16" t="n">
+        <v>334.196</v>
+      </c>
+      <c r="E39" s="16" t="n">
+        <v>2310.97</v>
+      </c>
+      <c r="F39" s="16" t="n">
+        <v>1384.49</v>
+      </c>
+      <c r="G39" s="16" t="n">
+        <v>1669.37</v>
+      </c>
+      <c r="H39" s="16" t="n">
+        <v>955.752</v>
+      </c>
+      <c r="I39" s="17" t="n">
+        <f aca="false">SUM(B39:H39)/7</f>
+        <v>1367.89685714286</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="16"/>
+      <c r="B40" s="18" t="n">
+        <v>2975.77</v>
+      </c>
+      <c r="C40" s="18" t="n">
+        <v>2820.33</v>
+      </c>
+      <c r="D40" s="18" t="n">
+        <v>612.087</v>
+      </c>
+      <c r="E40" s="18" t="n">
+        <v>4593.47</v>
+      </c>
+      <c r="F40" s="18" t="n">
+        <v>2732.85</v>
+      </c>
+      <c r="G40" s="18" t="n">
+        <v>3341.78</v>
+      </c>
+      <c r="H40" s="18" t="n">
+        <v>1872.79</v>
+      </c>
+      <c r="I40" s="17" t="n">
+        <f aca="false">SUM(B40:H40)/7</f>
+        <v>2707.011</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="16"/>
+      <c r="B41" s="18" t="n">
+        <v>1725.61</v>
+      </c>
+      <c r="C41" s="18" t="n">
+        <v>1788.3</v>
+      </c>
+      <c r="D41" s="18" t="n">
+        <v>381.145</v>
+      </c>
+      <c r="E41" s="18" t="n">
+        <v>2687.13</v>
+      </c>
+      <c r="F41" s="18" t="n">
+        <v>1590.81</v>
+      </c>
+      <c r="G41" s="18" t="n">
+        <v>1915.32</v>
+      </c>
+      <c r="H41" s="18" t="n">
+        <v>1157.14</v>
+      </c>
+      <c r="I41" s="17" t="n">
+        <f aca="false">SUM(B41:H41)/7</f>
+        <v>1606.49357142857</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="16"/>
+      <c r="B42" s="18" t="n">
+        <v>1346.75</v>
+      </c>
+      <c r="C42" s="18" t="n">
+        <v>1311.53</v>
+      </c>
+      <c r="D42" s="18" t="n">
+        <v>304.065</v>
+      </c>
+      <c r="E42" s="18" t="n">
+        <v>1989.35</v>
+      </c>
+      <c r="F42" s="18" t="n">
+        <v>1135.49</v>
+      </c>
+      <c r="G42" s="18" t="n">
+        <v>1285.37</v>
+      </c>
+      <c r="H42" s="18" t="n">
+        <v>789.036</v>
+      </c>
+      <c r="I42" s="17" t="n">
+        <f aca="false">SUM(B42:H42)/7</f>
+        <v>1165.94157142857</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="15"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="16"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="17"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="16"/>
+      <c r="B44" s="18" t="n">
+        <v>5173.2</v>
+      </c>
+      <c r="C44" s="18" t="n">
+        <v>5553.24</v>
+      </c>
+      <c r="D44" s="18" t="n">
+        <v>1219.03</v>
+      </c>
+      <c r="E44" s="18" t="n">
+        <v>8523.25</v>
+      </c>
+      <c r="F44" s="18" t="n">
+        <v>5209.61</v>
+      </c>
+      <c r="G44" s="18" t="n">
+        <v>5823.41</v>
+      </c>
+      <c r="H44" s="18" t="n">
+        <v>3453.11</v>
+      </c>
+      <c r="I44" s="17" t="n">
+        <f aca="false">SUM(B44:H44)/7</f>
+        <v>4993.55</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="16"/>
+      <c r="B45" s="18" t="n">
+        <v>6109.72</v>
+      </c>
+      <c r="C45" s="18" t="n">
+        <v>6530.76</v>
+      </c>
+      <c r="D45" s="18" t="n">
+        <v>1425.2</v>
+      </c>
+      <c r="E45" s="18" t="n">
+        <v>10111.6</v>
+      </c>
+      <c r="F45" s="18" t="n">
+        <v>6127.73</v>
+      </c>
+      <c r="G45" s="18" t="n">
+        <v>6846.86</v>
+      </c>
+      <c r="H45" s="18" t="n">
+        <v>4050.58</v>
+      </c>
+      <c r="I45" s="17" t="n">
+        <f aca="false">SUM(B45:H45)/7</f>
+        <v>5886.06428571429</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="16"/>
+      <c r="B46" s="18" t="n">
+        <v>3631.25</v>
+      </c>
+      <c r="C46" s="18" t="n">
+        <v>4169.05</v>
+      </c>
+      <c r="D46" s="18" t="n">
+        <v>904.283</v>
+      </c>
+      <c r="E46" s="18" t="n">
+        <v>6008.38</v>
+      </c>
+      <c r="F46" s="18" t="n">
+        <v>3678.06</v>
+      </c>
+      <c r="G46" s="18" t="n">
+        <v>4150.14</v>
+      </c>
+      <c r="H46" s="18" t="n">
+        <v>2559.8</v>
+      </c>
+      <c r="I46" s="17" t="n">
+        <f aca="false">SUM(B46:H46)/7</f>
+        <v>3585.85185714286</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="16"/>
+      <c r="B47" s="18" t="n">
+        <v>2938.13</v>
+      </c>
+      <c r="C47" s="18" t="n">
+        <v>3019.11</v>
+      </c>
+      <c r="D47" s="18" t="n">
+        <v>685.442</v>
+      </c>
+      <c r="E47" s="18" t="n">
+        <v>4558.13</v>
+      </c>
+      <c r="F47" s="18" t="n">
+        <v>2613.93</v>
+      </c>
+      <c r="G47" s="18" t="n">
+        <v>3013.96</v>
+      </c>
+      <c r="H47" s="18" t="n">
+        <v>1792.9</v>
+      </c>
+      <c r="I47" s="17" t="n">
+        <f aca="false">SUM(B47:H47)/7</f>
+        <v>2660.22885714286</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="15"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="16"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="17"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="16"/>
+      <c r="B49" s="18" t="n">
+        <v>50.8604</v>
+      </c>
+      <c r="C49" s="18" t="n">
+        <v>123.155</v>
+      </c>
+      <c r="D49" s="18" t="n">
+        <v>48.0591</v>
+      </c>
+      <c r="E49" s="18" t="n">
+        <v>29.4593</v>
+      </c>
+      <c r="F49" s="18" t="n">
+        <v>106.786</v>
+      </c>
+      <c r="G49" s="18" t="n">
+        <v>29.3338</v>
+      </c>
+      <c r="H49" s="18" t="n">
+        <v>75.0255</v>
+      </c>
+      <c r="I49" s="17" t="n">
+        <f aca="false">SUM(B49:H49)/7</f>
+        <v>66.0970142857143</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="16"/>
+      <c r="B50" s="18" t="n">
+        <v>52.2391</v>
+      </c>
+      <c r="C50" s="18" t="n">
+        <v>148.558</v>
+      </c>
+      <c r="D50" s="18" t="n">
+        <v>48.0628</v>
+      </c>
+      <c r="E50" s="18" t="n">
+        <v>29.5708</v>
+      </c>
+      <c r="F50" s="18" t="n">
+        <v>117.829</v>
+      </c>
+      <c r="G50" s="18" t="n">
+        <v>29.4605</v>
+      </c>
+      <c r="H50" s="18" t="n">
+        <v>75.7045</v>
+      </c>
+      <c r="I50" s="17" t="n">
+        <f aca="false">SUM(B50:H50)/7</f>
+        <v>71.6321</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="16"/>
+      <c r="B51" s="18" t="n">
+        <v>49.9863</v>
+      </c>
+      <c r="C51" s="18" t="n">
+        <v>112.258</v>
+      </c>
+      <c r="D51" s="18" t="n">
+        <v>48.4267</v>
+      </c>
+      <c r="E51" s="18" t="n">
+        <v>29.6717</v>
+      </c>
+      <c r="F51" s="18" t="n">
+        <v>101.575</v>
+      </c>
+      <c r="G51" s="18" t="n">
+        <v>29.3675</v>
+      </c>
+      <c r="H51" s="18" t="n">
+        <v>75.552</v>
+      </c>
+      <c r="I51" s="17" t="n">
+        <f aca="false">SUM(B51:H51)/7</f>
+        <v>63.8338857142857</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="16"/>
+      <c r="B52" s="18" t="n">
+        <v>48.7287</v>
+      </c>
+      <c r="C52" s="18" t="n">
+        <v>92.1884</v>
+      </c>
+      <c r="D52" s="18" t="n">
+        <v>48.1869</v>
+      </c>
+      <c r="E52" s="18" t="n">
+        <v>29.661</v>
+      </c>
+      <c r="F52" s="18" t="n">
+        <v>91.9774</v>
+      </c>
+      <c r="G52" s="18" t="n">
+        <v>29.2894</v>
+      </c>
+      <c r="H52" s="18" t="n">
+        <v>74.1667</v>
+      </c>
+      <c r="I52" s="17" t="n">
+        <f aca="false">SUM(B52:H52)/7</f>
+        <v>59.1712142857143</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="16"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="17"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="16"/>
+      <c r="B54" s="18" t="n">
+        <v>35.8922</v>
+      </c>
+      <c r="C54" s="18" t="n">
+        <v>322.023</v>
+      </c>
+      <c r="D54" s="18" t="n">
+        <v>20.5539</v>
+      </c>
+      <c r="E54" s="18" t="n">
+        <v>3.84241</v>
+      </c>
+      <c r="F54" s="18" t="n">
+        <v>174.056</v>
+      </c>
+      <c r="G54" s="18" t="n">
+        <v>3.78084</v>
+      </c>
+      <c r="H54" s="18" t="n">
+        <v>50.6594</v>
+      </c>
+      <c r="I54" s="17" t="n">
+        <f aca="false">SUM(B54:H54)/7</f>
+        <v>87.25825</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="16"/>
+      <c r="B55" s="18" t="n">
+        <v>41.0297</v>
+      </c>
+      <c r="C55" s="18" t="n">
+        <v>419.201</v>
+      </c>
+      <c r="D55" s="18" t="n">
+        <v>20.7264</v>
+      </c>
+      <c r="E55" s="18" t="n">
+        <v>3.81226</v>
+      </c>
+      <c r="F55" s="18" t="n">
+        <v>215.555</v>
+      </c>
+      <c r="G55" s="18" t="n">
+        <v>3.77941</v>
+      </c>
+      <c r="H55" s="18" t="n">
+        <v>51.9118</v>
+      </c>
+      <c r="I55" s="17" t="n">
+        <f aca="false">SUM(B55:H55)/7</f>
+        <v>108.002224285714</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="16"/>
+      <c r="B56" s="18" t="n">
+        <v>39.7837</v>
+      </c>
+      <c r="C56" s="18" t="n">
+        <v>416.859</v>
+      </c>
+      <c r="D56" s="18" t="n">
+        <v>20.5283</v>
+      </c>
+      <c r="E56" s="18" t="n">
+        <v>3.8379</v>
+      </c>
+      <c r="F56" s="18" t="n">
+        <v>198.151</v>
+      </c>
+      <c r="G56" s="18" t="n">
+        <v>3.79685</v>
+      </c>
+      <c r="H56" s="18" t="n">
+        <v>51.4891</v>
+      </c>
+      <c r="I56" s="17" t="n">
+        <f aca="false">SUM(B56:H56)/7</f>
+        <v>104.920835714286</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="16"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="18" t="n">
+        <v>32.4663</v>
+      </c>
+      <c r="C57" s="18" t="n">
+        <v>270.045</v>
+      </c>
+      <c r="D57" s="18" t="n">
+        <v>20.7562</v>
+      </c>
+      <c r="E57" s="18" t="n">
+        <v>3.96747</v>
+      </c>
+      <c r="F57" s="18" t="n">
+        <v>150.72</v>
+      </c>
+      <c r="G57" s="18" t="n">
+        <v>3.86895</v>
+      </c>
+      <c r="H57" s="18" t="n">
+        <v>51.8031</v>
+      </c>
+      <c r="I57" s="17" t="n">
+        <f aca="false">SUM(B57:H57)/7</f>
+        <v>76.2324314285714</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="17"/>
     </row>
     <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="20" t="s">
@@ -1360,28 +1804,28 @@
     </row>
     <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="C60" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="D60" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="E60" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="F60" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="22" t="s">
+      <c r="G60" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G60" s="22" t="s">
+      <c r="H60" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="H60" s="22" t="s">
-        <v>46</v>
       </c>
       <c r="I60" s="21"/>
     </row>

--- a/pubmed_UA_results_Q1-Q4.xlsx
+++ b/pubmed_UA_results_Q1-Q4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t xml:space="preserve">All Queries are UA (Uncompressed Array)</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">Avg of all trials (ms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old Avg. of Trials</t>
   </si>
   <si>
     <t xml:space="preserve">Q1 – 0 threads</t>
@@ -357,11 +360,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -458,23 +461,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.9387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.1377551020408"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4897959183673"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.7755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.9387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="13.3214285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.8571428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.8775510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="13.3214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -629,125 +633,140 @@
       <c r="I13" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>177.164</v>
+        <v>160.1</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>449.472</v>
+        <v>397.177</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>305.715</v>
+        <v>270.737</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>341.391</v>
+        <v>306.286</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>357.396</v>
+        <v>316.257</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>63.6883</v>
+        <v>60.3721</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>263.496</v>
+        <v>238.663</v>
       </c>
       <c r="I14" s="7" t="n">
         <f aca="false">SUM(B14:H14)/7</f>
-        <v>279.760328571429</v>
+        <v>249.941728571429</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>164.784</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>304.717</v>
+        <v>303.548</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>861.215</v>
+        <v>857.468</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>568.676</v>
+        <v>568.35</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>620.544</v>
+        <v>616.176</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>676.358</v>
+        <v>681.042</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>78.945</v>
+        <v>78.7532</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>454.206</v>
+        <v>473.598</v>
       </c>
       <c r="I15" s="7" t="n">
         <f aca="false">SUM(B15:H15)/7</f>
-        <v>509.237285714286</v>
+        <v>511.276457142857</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>310.203</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>260.422</v>
+        <v>258.569</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>527.013</v>
+        <v>523.118</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>371.576</v>
+        <v>368.694</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>366.893</v>
+        <v>364.807</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>403.599</v>
+        <v>397.18</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>78.7156</v>
+        <v>78.5225</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>332.175</v>
+        <v>330.49</v>
       </c>
       <c r="I16" s="7" t="n">
         <f aca="false">SUM(B16:H16)/7</f>
-        <v>334.341942857143</v>
+        <v>331.625785714286</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>219.858</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>163.704</v>
+        <v>160.265</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>401.56</v>
+        <v>396.286</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>265.851</v>
+        <v>259.469</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>295.566</v>
+        <v>291.304</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>362.482</v>
+        <v>347.274</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>78.5398</v>
+        <v>78.3642</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>269.423</v>
+        <v>269.207</v>
       </c>
       <c r="I17" s="7" t="n">
         <f aca="false">SUM(B17:H17)/7</f>
-        <v>262.446542857143</v>
+        <v>257.452742857143</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>177.084</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -760,125 +779,138 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="7"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>599.175</v>
+        <v>527.254</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>1668.09</v>
+        <v>1489.12</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>1093.46</v>
+        <v>959.545</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1261.51</v>
+        <v>1112</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1320.93</v>
+        <v>1161.93</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>134.492</v>
+        <v>125.306</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>959.772</v>
+        <v>850.385</v>
       </c>
       <c r="I19" s="7" t="n">
         <f aca="false">SUM(B19:H19)/7</f>
-        <v>1005.347</v>
+        <v>889.362857142857</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>659.6946</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>682.646</v>
+        <v>641.033</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1948.22</v>
+        <v>1816.79</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1254.02</v>
+        <v>1172.34</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1465.23</v>
+        <v>1371.33</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1516.48</v>
+        <v>1408.67</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>147.065</v>
+        <v>139.863</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1103.53</v>
+        <v>1030.27</v>
       </c>
       <c r="I20" s="7" t="n">
         <f aca="false">SUM(B20:H20)/7</f>
-        <v>1159.59871428571</v>
+        <v>1082.89942857143</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>846.954</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>545.3</v>
+        <v>509.219</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1248.59</v>
+        <v>1174.52</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>811.37</v>
+        <v>757.672</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>879.022</v>
+        <v>835.675</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>908.483</v>
+        <v>863.944</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>148.237</v>
+        <v>140.506</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>767.573</v>
+        <v>718.88</v>
       </c>
       <c r="I21" s="7" t="n">
         <f aca="false">SUM(B21:H21)/7</f>
-        <v>758.367857142857</v>
+        <v>714.345142857143</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>575.9353</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>340.752</v>
+        <v>327.413</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>893.075</v>
+        <v>873.448</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>566.034</v>
+        <v>546.696</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>644.161</v>
+        <v>628.566</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>784.397</v>
+        <v>746.957</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>150.441</v>
+        <v>140.061</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>570.883</v>
+        <v>552.866</v>
       </c>
       <c r="I22" s="7" t="n">
         <f aca="false">SUM(B22:H22)/7</f>
-        <v>564.249</v>
+        <v>545.143857142857</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>452.7999</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -891,125 +923,138 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="7"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>88.8644</v>
+        <v>78.2289</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>27.0305</v>
+        <v>24.2327</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>96.255</v>
+        <v>76.0681</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>114.507</v>
+        <v>97.6033</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26.5557</v>
+        <v>24.0476</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>61.464</v>
+        <v>50.4205</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>28.5918</v>
+        <v>25.9063</v>
       </c>
       <c r="I24" s="7" t="n">
         <f aca="false">SUM(B24:H24)/7</f>
-        <v>63.3240571428571</v>
+        <v>53.7867714285714</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>32.755</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>101.265</v>
+        <v>91.7148</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>27.2734</v>
+        <v>24.4768</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>96.6841</v>
+        <v>77.568</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>126.662</v>
+        <v>109.396</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26.8189</v>
+        <v>24.1602</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>61.7173</v>
+        <v>50.5925</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>28.6505</v>
+        <v>25.8575</v>
       </c>
       <c r="I25" s="7" t="n">
         <f aca="false">SUM(B25:H25)/7</f>
-        <v>67.0101714285714</v>
+        <v>57.6808285714286</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>35.647</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>85.4366</v>
+        <v>73.5523</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>27.0577</v>
+        <v>24.2611</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>94.9344</v>
+        <v>75.4348</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>110.489</v>
+        <v>92.6782</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26.695</v>
+        <v>24.081</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>62.0457</v>
+        <v>50.6761</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>28.7462</v>
+        <v>25.8821</v>
       </c>
       <c r="I26" s="7" t="n">
         <f aca="false">SUM(B26:H26)/7</f>
-        <v>62.2006571428572</v>
+        <v>52.3665142857143</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>32.238</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>74.6112</v>
+        <v>63.2709</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>27.4512</v>
+        <v>24.3024</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>94.4324</v>
+        <v>74.8202</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>102.182</v>
+        <v>83.3054</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>26.7453</v>
+        <v>24.0918</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>62.005</v>
+        <v>50.6104</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>28.9192</v>
+        <v>26.0428</v>
       </c>
       <c r="I27" s="7" t="n">
         <f aca="false">SUM(B27:H27)/7</f>
-        <v>59.4780428571429</v>
+        <v>49.4919857142857</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>30.334</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,125 +1067,138 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="7"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>105.208</v>
+        <v>93.0506</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.59507</v>
+        <v>1.70934</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>73.7227</v>
+        <v>55.9887</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>129.747</v>
+        <v>108.06</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.31717</v>
+        <v>1.38828</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>34.53</v>
+        <v>25.9654</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.24726</v>
+        <v>1.27461</v>
       </c>
       <c r="I29" s="7" t="n">
         <f aca="false">SUM(B29:H29)/7</f>
-        <v>49.6238857142857</v>
+        <v>41.0624185714286</v>
+      </c>
+      <c r="J29" s="3" t="n">
+        <v>24.95</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>123.219</v>
+        <v>111.581</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.98092</v>
+        <v>2.12615</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>74.932</v>
+        <v>58.1175</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>148.032</v>
+        <v>129.307</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.53619</v>
+        <v>1.57601</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>34.429</v>
+        <v>26.1673</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.24599</v>
+        <v>1.29909</v>
       </c>
       <c r="I30" s="7" t="n">
         <f aca="false">SUM(B30:H30)/7</f>
-        <v>55.0535857142857</v>
+        <v>47.1677214285714</v>
+      </c>
+      <c r="J30" s="3" t="n">
+        <v>30.769</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>111.454</v>
+        <v>110.83</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>1.90441</v>
+        <v>2.01739</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>74.2774</v>
+        <v>57.1669</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>136.087</v>
+        <v>127.525</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1.49949</v>
+        <v>1.58084</v>
       </c>
       <c r="G31" s="5" t="n">
-        <v>34.4597</v>
+        <v>26.2062</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>1.24599</v>
+        <v>1.35165</v>
       </c>
       <c r="I31" s="7" t="n">
         <f aca="false">SUM(B31:H31)/7</f>
-        <v>51.5611414285714</v>
+        <v>46.6682828571429</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>31.314</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>86.1379</v>
+        <v>78.4125</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>1.64665</v>
+        <v>1.74273</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>71.7187</v>
+        <v>56.3952</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>110.254</v>
+        <v>96.1065</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1.43729</v>
+        <v>1.55171</v>
       </c>
       <c r="G32" s="5" t="n">
-        <v>34.955</v>
+        <v>26.2618</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>1.32628</v>
+        <v>1.3493</v>
       </c>
       <c r="I32" s="7" t="n">
         <f aca="false">SUM(B32:H32)/7</f>
-        <v>43.9251171428571</v>
+        <v>37.40282</v>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>25.95</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,10 +1211,11 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="6"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" s="10" t="n">
         <v>10296795</v>
@@ -1180,40 +1239,42 @@
         <v>19265035</v>
       </c>
       <c r="I34" s="11"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I35" s="11"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1236,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>7</v>
@@ -1250,518 +1311,572 @@
       <c r="I38" s="15" t="s">
         <v>10</v>
       </c>
+      <c r="J38" s="16" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="16" t="n">
-        <v>1482.33</v>
-      </c>
-      <c r="C39" s="16" t="n">
-        <v>1438.17</v>
-      </c>
-      <c r="D39" s="16" t="n">
-        <v>334.196</v>
-      </c>
-      <c r="E39" s="16" t="n">
-        <v>2310.97</v>
-      </c>
-      <c r="F39" s="16" t="n">
-        <v>1384.49</v>
-      </c>
-      <c r="G39" s="16" t="n">
-        <v>1669.37</v>
-      </c>
-      <c r="H39" s="16" t="n">
-        <v>955.752</v>
-      </c>
-      <c r="I39" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" s="17" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C39" s="17" t="n">
+        <v>1250.86</v>
+      </c>
+      <c r="D39" s="17" t="n">
+        <v>295.763</v>
+      </c>
+      <c r="E39" s="17" t="n">
+        <v>1991.86</v>
+      </c>
+      <c r="F39" s="17" t="n">
+        <v>1204.34</v>
+      </c>
+      <c r="G39" s="17" t="n">
+        <v>1410.64</v>
+      </c>
+      <c r="H39" s="17" t="n">
+        <v>825.141</v>
+      </c>
+      <c r="I39" s="18" t="n">
         <f aca="false">SUM(B39:H39)/7</f>
-        <v>1367.89685714286</v>
+        <v>1175.22914285714</v>
+      </c>
+      <c r="J39" s="16" t="n">
+        <v>756.806</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="18" t="n">
-        <v>2975.77</v>
-      </c>
-      <c r="C40" s="18" t="n">
-        <v>2820.33</v>
-      </c>
-      <c r="D40" s="18" t="n">
-        <v>612.087</v>
-      </c>
-      <c r="E40" s="18" t="n">
-        <v>4593.47</v>
-      </c>
-      <c r="F40" s="18" t="n">
-        <v>2732.85</v>
-      </c>
-      <c r="G40" s="18" t="n">
-        <v>3341.78</v>
-      </c>
-      <c r="H40" s="18" t="n">
-        <v>1872.79</v>
-      </c>
-      <c r="I40" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="B40" s="17" t="n">
+        <v>2972.6</v>
+      </c>
+      <c r="C40" s="17" t="n">
+        <v>2826.62</v>
+      </c>
+      <c r="D40" s="17" t="n">
+        <v>608.892</v>
+      </c>
+      <c r="E40" s="17" t="n">
+        <v>4583.4</v>
+      </c>
+      <c r="F40" s="17" t="n">
+        <v>2722.83</v>
+      </c>
+      <c r="G40" s="17" t="n">
+        <v>3333.14</v>
+      </c>
+      <c r="H40" s="17" t="n">
+        <v>1871.55</v>
+      </c>
+      <c r="I40" s="18" t="n">
         <f aca="false">SUM(B40:H40)/7</f>
-        <v>2707.011</v>
+        <v>2702.71885714286</v>
+      </c>
+      <c r="J40" s="16" t="n">
+        <v>1611.52</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="18" t="n">
-        <v>1725.61</v>
-      </c>
-      <c r="C41" s="18" t="n">
-        <v>1788.3</v>
-      </c>
-      <c r="D41" s="18" t="n">
-        <v>381.145</v>
-      </c>
-      <c r="E41" s="18" t="n">
-        <v>2687.13</v>
-      </c>
-      <c r="F41" s="18" t="n">
-        <v>1590.81</v>
-      </c>
-      <c r="G41" s="18" t="n">
-        <v>1915.32</v>
-      </c>
-      <c r="H41" s="18" t="n">
-        <v>1157.14</v>
-      </c>
-      <c r="I41" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B41" s="17" t="n">
+        <v>1720.19</v>
+      </c>
+      <c r="C41" s="17" t="n">
+        <v>1777.75</v>
+      </c>
+      <c r="D41" s="17" t="n">
+        <v>376.747</v>
+      </c>
+      <c r="E41" s="17" t="n">
+        <v>2682.4</v>
+      </c>
+      <c r="F41" s="17" t="n">
+        <v>1564.92</v>
+      </c>
+      <c r="G41" s="17" t="n">
+        <v>1900.62</v>
+      </c>
+      <c r="H41" s="17" t="n">
+        <v>1151.46</v>
+      </c>
+      <c r="I41" s="18" t="n">
         <f aca="false">SUM(B41:H41)/7</f>
-        <v>1606.49357142857</v>
+        <v>1596.29814285714</v>
+      </c>
+      <c r="J41" s="16" t="n">
+        <v>1047.103</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="18" t="n">
-        <v>1346.75</v>
-      </c>
-      <c r="C42" s="18" t="n">
-        <v>1311.53</v>
-      </c>
-      <c r="D42" s="18" t="n">
-        <v>304.065</v>
-      </c>
-      <c r="E42" s="18" t="n">
-        <v>1989.35</v>
-      </c>
-      <c r="F42" s="18" t="n">
-        <v>1135.49</v>
-      </c>
-      <c r="G42" s="18" t="n">
-        <v>1285.37</v>
-      </c>
-      <c r="H42" s="18" t="n">
-        <v>789.036</v>
-      </c>
-      <c r="I42" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B42" s="17" t="n">
+        <v>1343.92</v>
+      </c>
+      <c r="C42" s="17" t="n">
+        <v>1307.24</v>
+      </c>
+      <c r="D42" s="17" t="n">
+        <v>301.071</v>
+      </c>
+      <c r="E42" s="17" t="n">
+        <v>1983.57</v>
+      </c>
+      <c r="F42" s="17" t="n">
+        <v>1113.3</v>
+      </c>
+      <c r="G42" s="17" t="n">
+        <v>1290.65</v>
+      </c>
+      <c r="H42" s="17" t="n">
+        <v>781.634</v>
+      </c>
+      <c r="I42" s="18" t="n">
         <f aca="false">SUM(B42:H42)/7</f>
-        <v>1165.94157142857</v>
+        <v>1160.19785714286</v>
+      </c>
+      <c r="J42" s="16" t="n">
+        <v>834.365</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="16"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="18" t="n">
-        <v>5173.2</v>
-      </c>
-      <c r="C44" s="18" t="n">
-        <v>5553.24</v>
-      </c>
-      <c r="D44" s="18" t="n">
-        <v>1219.03</v>
-      </c>
-      <c r="E44" s="18" t="n">
-        <v>8523.25</v>
-      </c>
-      <c r="F44" s="18" t="n">
-        <v>5209.61</v>
-      </c>
-      <c r="G44" s="18" t="n">
-        <v>5823.41</v>
-      </c>
-      <c r="H44" s="18" t="n">
-        <v>3453.11</v>
-      </c>
-      <c r="I44" s="17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B44" s="17" t="n">
+        <v>4574.38</v>
+      </c>
+      <c r="C44" s="17" t="n">
+        <v>4857.01</v>
+      </c>
+      <c r="D44" s="17" t="n">
+        <v>1070.12</v>
+      </c>
+      <c r="E44" s="17" t="n">
+        <v>7492.03</v>
+      </c>
+      <c r="F44" s="17" t="n">
+        <v>4584.79</v>
+      </c>
+      <c r="G44" s="17" t="n">
+        <v>5096.94</v>
+      </c>
+      <c r="H44" s="17" t="n">
+        <v>3036.49</v>
+      </c>
+      <c r="I44" s="18" t="n">
         <f aca="false">SUM(B44:H44)/7</f>
-        <v>4993.55</v>
+        <v>4387.39428571429</v>
+      </c>
+      <c r="J44" s="16" t="n">
+        <v>3248.979</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="18" t="n">
-        <v>6109.72</v>
-      </c>
-      <c r="C45" s="18" t="n">
-        <v>6530.76</v>
-      </c>
-      <c r="D45" s="18" t="n">
-        <v>1425.2</v>
-      </c>
-      <c r="E45" s="18" t="n">
-        <v>10111.6</v>
-      </c>
-      <c r="F45" s="18" t="n">
-        <v>6127.73</v>
-      </c>
-      <c r="G45" s="18" t="n">
-        <v>6846.86</v>
-      </c>
-      <c r="H45" s="18" t="n">
-        <v>4050.58</v>
-      </c>
-      <c r="I45" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B45" s="17" t="n">
+        <v>5705.54</v>
+      </c>
+      <c r="C45" s="17" t="n">
+        <v>6216.79</v>
+      </c>
+      <c r="D45" s="17" t="n">
+        <v>1349.14</v>
+      </c>
+      <c r="E45" s="17" t="n">
+        <v>9541.51</v>
+      </c>
+      <c r="F45" s="17" t="n">
+        <v>5745.54</v>
+      </c>
+      <c r="G45" s="17" t="n">
+        <v>6486.54</v>
+      </c>
+      <c r="H45" s="17" t="n">
+        <v>3791.31</v>
+      </c>
+      <c r="I45" s="18" t="n">
         <f aca="false">SUM(B45:H45)/7</f>
-        <v>5886.06428571429</v>
+        <v>5548.05285714286</v>
+      </c>
+      <c r="J45" s="16" t="n">
+        <v>4224.394</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="18" t="n">
-        <v>3631.25</v>
-      </c>
-      <c r="C46" s="18" t="n">
-        <v>4169.05</v>
-      </c>
-      <c r="D46" s="18" t="n">
-        <v>904.283</v>
-      </c>
-      <c r="E46" s="18" t="n">
-        <v>6008.38</v>
-      </c>
-      <c r="F46" s="18" t="n">
-        <v>3678.06</v>
-      </c>
-      <c r="G46" s="18" t="n">
-        <v>4150.14</v>
-      </c>
-      <c r="H46" s="18" t="n">
-        <v>2559.8</v>
-      </c>
-      <c r="I46" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="B46" s="17" t="n">
+        <v>3440.26</v>
+      </c>
+      <c r="C46" s="17" t="n">
+        <v>3916.81</v>
+      </c>
+      <c r="D46" s="17" t="n">
+        <v>856.165</v>
+      </c>
+      <c r="E46" s="17" t="n">
+        <v>5655.4</v>
+      </c>
+      <c r="F46" s="17" t="n">
+        <v>3457.24</v>
+      </c>
+      <c r="G46" s="17" t="n">
+        <v>3841.89</v>
+      </c>
+      <c r="H46" s="17" t="n">
+        <v>2406.54</v>
+      </c>
+      <c r="I46" s="18" t="n">
         <f aca="false">SUM(B46:H46)/7</f>
-        <v>3585.85185714286</v>
+        <v>3367.75785714286</v>
+      </c>
+      <c r="J46" s="16" t="n">
+        <v>2725.91</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="18" t="n">
-        <v>2938.13</v>
-      </c>
-      <c r="C47" s="18" t="n">
-        <v>3019.11</v>
-      </c>
-      <c r="D47" s="18" t="n">
-        <v>685.442</v>
-      </c>
-      <c r="E47" s="18" t="n">
-        <v>4558.13</v>
-      </c>
-      <c r="F47" s="18" t="n">
-        <v>2613.93</v>
-      </c>
-      <c r="G47" s="18" t="n">
-        <v>3013.96</v>
-      </c>
-      <c r="H47" s="18" t="n">
-        <v>1792.9</v>
-      </c>
-      <c r="I47" s="17" t="n">
+        <v>19</v>
+      </c>
+      <c r="B47" s="17" t="n">
+        <v>2757.95</v>
+      </c>
+      <c r="C47" s="17" t="n">
+        <v>2884.82</v>
+      </c>
+      <c r="D47" s="17" t="n">
+        <v>655.104</v>
+      </c>
+      <c r="E47" s="17" t="n">
+        <v>4314.99</v>
+      </c>
+      <c r="F47" s="17" t="n">
+        <v>2503</v>
+      </c>
+      <c r="G47" s="17" t="n">
+        <v>2888.31</v>
+      </c>
+      <c r="H47" s="17" t="n">
+        <v>1708.18</v>
+      </c>
+      <c r="I47" s="18" t="n">
         <f aca="false">SUM(B47:H47)/7</f>
-        <v>2660.22885714286</v>
+        <v>2530.33628571429</v>
+      </c>
+      <c r="J47" s="16" t="n">
+        <v>2127.271</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="15"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="16"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="18" t="n">
-        <v>50.8604</v>
-      </c>
-      <c r="C49" s="18" t="n">
-        <v>123.155</v>
-      </c>
-      <c r="D49" s="18" t="n">
-        <v>48.0591</v>
-      </c>
-      <c r="E49" s="18" t="n">
-        <v>29.4593</v>
-      </c>
-      <c r="F49" s="18" t="n">
-        <v>106.786</v>
-      </c>
-      <c r="G49" s="18" t="n">
-        <v>29.3338</v>
-      </c>
-      <c r="H49" s="18" t="n">
-        <v>75.0255</v>
-      </c>
-      <c r="I49" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="B49" s="17" t="n">
+        <v>43.2749</v>
+      </c>
+      <c r="C49" s="17" t="n">
+        <v>109.729</v>
+      </c>
+      <c r="D49" s="17" t="n">
+        <v>40.3098</v>
+      </c>
+      <c r="E49" s="17" t="n">
+        <v>26.3624</v>
+      </c>
+      <c r="F49" s="17" t="n">
+        <v>90.2099</v>
+      </c>
+      <c r="G49" s="17" t="n">
+        <v>26.0597</v>
+      </c>
+      <c r="H49" s="17" t="n">
+        <v>60.1683</v>
+      </c>
+      <c r="I49" s="18" t="n">
         <f aca="false">SUM(B49:H49)/7</f>
-        <v>66.0970142857143</v>
+        <v>56.5877142857143</v>
+      </c>
+      <c r="J49" s="16" t="n">
+        <v>34.903</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="18" t="n">
-        <v>52.2391</v>
-      </c>
-      <c r="C50" s="18" t="n">
-        <v>148.558</v>
-      </c>
-      <c r="D50" s="18" t="n">
-        <v>48.0628</v>
-      </c>
-      <c r="E50" s="18" t="n">
-        <v>29.5708</v>
-      </c>
-      <c r="F50" s="18" t="n">
-        <v>117.829</v>
-      </c>
-      <c r="G50" s="18" t="n">
-        <v>29.4605</v>
-      </c>
-      <c r="H50" s="18" t="n">
-        <v>75.7045</v>
-      </c>
-      <c r="I50" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="B50" s="17" t="n">
+        <v>44.7928</v>
+      </c>
+      <c r="C50" s="17" t="n">
+        <v>134.725</v>
+      </c>
+      <c r="D50" s="17" t="n">
+        <v>40.6252</v>
+      </c>
+      <c r="E50" s="17" t="n">
+        <v>26.3224</v>
+      </c>
+      <c r="F50" s="17" t="n">
+        <v>102.057</v>
+      </c>
+      <c r="G50" s="17" t="n">
+        <v>26.1819</v>
+      </c>
+      <c r="H50" s="17" t="n">
+        <v>60.9245</v>
+      </c>
+      <c r="I50" s="18" t="n">
         <f aca="false">SUM(B50:H50)/7</f>
-        <v>71.6321</v>
+        <v>62.2326857142857</v>
+      </c>
+      <c r="J50" s="16" t="n">
+        <v>38.872</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="18" t="n">
-        <v>49.9863</v>
-      </c>
-      <c r="C51" s="18" t="n">
-        <v>112.258</v>
-      </c>
-      <c r="D51" s="18" t="n">
-        <v>48.4267</v>
-      </c>
-      <c r="E51" s="18" t="n">
-        <v>29.6717</v>
-      </c>
-      <c r="F51" s="18" t="n">
-        <v>101.575</v>
-      </c>
-      <c r="G51" s="18" t="n">
-        <v>29.3675</v>
-      </c>
-      <c r="H51" s="18" t="n">
-        <v>75.552</v>
-      </c>
-      <c r="I51" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="B51" s="17" t="n">
+        <v>42.9315</v>
+      </c>
+      <c r="C51" s="17" t="n">
+        <v>99.6219</v>
+      </c>
+      <c r="D51" s="17" t="n">
+        <v>40.6682</v>
+      </c>
+      <c r="E51" s="17" t="n">
+        <v>26.4067</v>
+      </c>
+      <c r="F51" s="17" t="n">
+        <v>87.0606</v>
+      </c>
+      <c r="G51" s="17" t="n">
+        <v>26.3482</v>
+      </c>
+      <c r="H51" s="17" t="n">
+        <v>60.2508</v>
+      </c>
+      <c r="I51" s="18" t="n">
         <f aca="false">SUM(B51:H51)/7</f>
-        <v>63.8338857142857</v>
+        <v>54.7554142857143</v>
+      </c>
+      <c r="J51" s="16" t="n">
+        <v>33.647</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" s="18" t="n">
-        <v>48.7287</v>
-      </c>
-      <c r="C52" s="18" t="n">
-        <v>92.1884</v>
-      </c>
-      <c r="D52" s="18" t="n">
-        <v>48.1869</v>
-      </c>
-      <c r="E52" s="18" t="n">
-        <v>29.661</v>
-      </c>
-      <c r="F52" s="18" t="n">
-        <v>91.9774</v>
-      </c>
-      <c r="G52" s="18" t="n">
-        <v>29.2894</v>
-      </c>
-      <c r="H52" s="18" t="n">
-        <v>74.1667</v>
-      </c>
-      <c r="I52" s="17" t="n">
+        <v>23</v>
+      </c>
+      <c r="B52" s="17" t="n">
+        <v>41.6585</v>
+      </c>
+      <c r="C52" s="17" t="n">
+        <v>80.5009</v>
+      </c>
+      <c r="D52" s="17" t="n">
+        <v>40.692</v>
+      </c>
+      <c r="E52" s="17" t="n">
+        <v>26.4906</v>
+      </c>
+      <c r="F52" s="17" t="n">
+        <v>76.7763</v>
+      </c>
+      <c r="G52" s="17" t="n">
+        <v>26.2031</v>
+      </c>
+      <c r="H52" s="17" t="n">
+        <v>60.0084</v>
+      </c>
+      <c r="I52" s="18" t="n">
         <f aca="false">SUM(B52:H52)/7</f>
-        <v>59.1712142857143</v>
+        <v>50.3328285714286</v>
+      </c>
+      <c r="J52" s="16" t="n">
+        <v>31.225</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="16"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="18" t="n">
-        <v>35.8922</v>
-      </c>
-      <c r="C54" s="18" t="n">
-        <v>322.023</v>
-      </c>
-      <c r="D54" s="18" t="n">
-        <v>20.5539</v>
-      </c>
-      <c r="E54" s="18" t="n">
-        <v>3.84241</v>
-      </c>
-      <c r="F54" s="18" t="n">
-        <v>174.056</v>
-      </c>
-      <c r="G54" s="18" t="n">
-        <v>3.78084</v>
-      </c>
-      <c r="H54" s="18" t="n">
-        <v>50.6594</v>
-      </c>
-      <c r="I54" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="B54" s="17" t="n">
+        <v>29.8469</v>
+      </c>
+      <c r="C54" s="17" t="n">
+        <v>270.138</v>
+      </c>
+      <c r="D54" s="17" t="n">
+        <v>16.1173</v>
+      </c>
+      <c r="E54" s="17" t="n">
+        <v>3.17473</v>
+      </c>
+      <c r="F54" s="17" t="n">
+        <v>143.359</v>
+      </c>
+      <c r="G54" s="17" t="n">
+        <v>2.98457</v>
+      </c>
+      <c r="H54" s="17" t="n">
+        <v>39.1991</v>
+      </c>
+      <c r="I54" s="18" t="n">
         <f aca="false">SUM(B54:H54)/7</f>
-        <v>87.25825</v>
+        <v>72.1170857142857</v>
+      </c>
+      <c r="J54" s="16" t="n">
+        <v>47.322</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="18" t="n">
-        <v>41.0297</v>
-      </c>
-      <c r="C55" s="18" t="n">
-        <v>419.201</v>
-      </c>
-      <c r="D55" s="18" t="n">
-        <v>20.7264</v>
-      </c>
-      <c r="E55" s="18" t="n">
-        <v>3.81226</v>
-      </c>
-      <c r="F55" s="18" t="n">
-        <v>215.555</v>
-      </c>
-      <c r="G55" s="18" t="n">
-        <v>3.77941</v>
-      </c>
-      <c r="H55" s="18" t="n">
-        <v>51.9118</v>
-      </c>
-      <c r="I55" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="B55" s="17" t="n">
+        <v>36.1971</v>
+      </c>
+      <c r="C55" s="17" t="n">
+        <v>395.109</v>
+      </c>
+      <c r="D55" s="17" t="n">
+        <v>16.1429</v>
+      </c>
+      <c r="E55" s="17" t="n">
+        <v>3.25668</v>
+      </c>
+      <c r="F55" s="17" t="n">
+        <v>195.932</v>
+      </c>
+      <c r="G55" s="17" t="n">
+        <v>3.30567</v>
+      </c>
+      <c r="H55" s="17" t="n">
+        <v>40.4123</v>
+      </c>
+      <c r="I55" s="18" t="n">
         <f aca="false">SUM(B55:H55)/7</f>
-        <v>108.002224285714</v>
+        <v>98.6222357142857</v>
+      </c>
+      <c r="J55" s="16" t="n">
+        <v>69.091</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="18" t="n">
-        <v>39.7837</v>
-      </c>
-      <c r="C56" s="18" t="n">
-        <v>416.859</v>
-      </c>
-      <c r="D56" s="18" t="n">
-        <v>20.5283</v>
-      </c>
-      <c r="E56" s="18" t="n">
-        <v>3.8379</v>
-      </c>
-      <c r="F56" s="18" t="n">
-        <v>198.151</v>
-      </c>
-      <c r="G56" s="18" t="n">
-        <v>3.79685</v>
-      </c>
-      <c r="H56" s="18" t="n">
-        <v>51.4891</v>
-      </c>
-      <c r="I56" s="17" t="n">
+        <v>26</v>
+      </c>
+      <c r="B56" s="17" t="n">
+        <v>34.1583</v>
+      </c>
+      <c r="C56" s="17" t="n">
+        <v>408.005</v>
+      </c>
+      <c r="D56" s="17" t="n">
+        <v>16.2282</v>
+      </c>
+      <c r="E56" s="17" t="n">
+        <v>3.28748</v>
+      </c>
+      <c r="F56" s="17" t="n">
+        <v>200.349</v>
+      </c>
+      <c r="G56" s="17" t="n">
+        <v>3.34196</v>
+      </c>
+      <c r="H56" s="17" t="n">
+        <v>40.4583</v>
+      </c>
+      <c r="I56" s="18" t="n">
         <f aca="false">SUM(B56:H56)/7</f>
-        <v>104.920835714286</v>
+        <v>100.832605714286</v>
+      </c>
+      <c r="J56" s="16" t="n">
+        <v>70.749</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B57" s="18" t="n">
-        <v>32.4663</v>
-      </c>
-      <c r="C57" s="18" t="n">
-        <v>270.045</v>
-      </c>
-      <c r="D57" s="18" t="n">
-        <v>20.7562</v>
-      </c>
-      <c r="E57" s="18" t="n">
-        <v>3.96747</v>
-      </c>
-      <c r="F57" s="18" t="n">
-        <v>150.72</v>
-      </c>
-      <c r="G57" s="18" t="n">
-        <v>3.86895</v>
-      </c>
-      <c r="H57" s="18" t="n">
-        <v>51.8031</v>
-      </c>
-      <c r="I57" s="17" t="n">
+        <v>27</v>
+      </c>
+      <c r="B57" s="17" t="n">
+        <v>30.4128</v>
+      </c>
+      <c r="C57" s="17" t="n">
+        <v>261.617</v>
+      </c>
+      <c r="D57" s="17" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="E57" s="17" t="n">
+        <v>3.28742</v>
+      </c>
+      <c r="F57" s="17" t="n">
+        <v>138.09</v>
+      </c>
+      <c r="G57" s="17" t="n">
+        <v>3.25672</v>
+      </c>
+      <c r="H57" s="17" t="n">
+        <v>38.9746</v>
+      </c>
+      <c r="I57" s="18" t="n">
         <f aca="false">SUM(B57:H57)/7</f>
-        <v>76.2324314285714</v>
+        <v>70.2740771428572</v>
+      </c>
+      <c r="J57" s="16" t="n">
+        <v>53.283</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1773,11 +1888,12 @@
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
-      <c r="I58" s="17"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I58" s="18"/>
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B59" s="21" t="n">
         <v>10296795</v>
@@ -1801,33 +1917,35 @@
         <v>19265035</v>
       </c>
       <c r="I59" s="21"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J59" s="16"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I60" s="21"/>
+      <c r="J60" s="16"/>
     </row>
     <row r="63" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/pubmed_UA_results_Q1-Q4.xlsx
+++ b/pubmed_UA_results_Q1-Q4.xlsx
@@ -481,22 +481,22 @@
   <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9540816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6887755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3367346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.780612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4591836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6989795918367"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.97448979591837"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.55612244897959"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.56632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="14.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.0510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8673469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.2142857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.1326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.38775510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.89285714285714"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.89285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="14.9591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -584,36 +584,36 @@
         <v>12</v>
       </c>
       <c r="B6" s="7" t="n">
-        <v>123.539</v>
+        <v>191.208</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>329.956</v>
+        <v>379.583</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>219.07</v>
+        <v>233.538</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>254.256</v>
+        <v>269.354</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>261.129</v>
+        <v>274.946</v>
       </c>
       <c r="G6" s="8" t="n">
-        <v>38.7223</v>
+        <v>39.9152</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>196.06</v>
+        <v>204.524</v>
       </c>
       <c r="I6" s="9" t="n">
         <f aca="false">SUM(B6:H6)/7</f>
-        <v>203.247471428571</v>
+        <v>227.581171428571</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>164.784</v>
       </c>
       <c r="K6" s="10" t="n">
         <f aca="false">(I6/J6-1)</f>
-        <v>0.233417512795972</v>
+        <v>0.381087796318644</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,36 +621,36 @@
         <v>13</v>
       </c>
       <c r="B7" s="7" t="n">
-        <v>257.528</v>
+        <v>255.838</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>769.953</v>
+        <v>762.625</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>502.549</v>
+        <v>497.141</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>546.433</v>
+        <v>541.01</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>602.363</v>
+        <v>596.081</v>
       </c>
       <c r="G7" s="8" t="n">
-        <v>52.3875</v>
+        <v>53.7581</v>
       </c>
       <c r="H7" s="7" t="n">
-        <v>415.153</v>
+        <v>413.338</v>
       </c>
       <c r="I7" s="9" t="n">
         <f aca="false">SUM(B7:H7)/7</f>
-        <v>449.480928571429</v>
+        <v>445.684442857143</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>310.203</v>
       </c>
       <c r="K7" s="10" t="n">
         <f aca="false">(I7/J7-1)</f>
-        <v>0.448989624766455</v>
+        <v>0.436750911039361</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,36 +658,36 @@
         <v>14</v>
       </c>
       <c r="B8" s="7" t="n">
-        <v>220.378</v>
+        <v>220.053</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>464.134</v>
+        <v>470.752</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>322.438</v>
+        <v>322.075</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>320.996</v>
+        <v>321.903</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>347.918</v>
+        <v>347.901</v>
       </c>
       <c r="G8" s="8" t="n">
-        <v>52.0468</v>
+        <v>53.9023</v>
       </c>
       <c r="H8" s="7" t="n">
-        <v>287.199</v>
+        <v>289.226</v>
       </c>
       <c r="I8" s="9" t="n">
         <f aca="false">SUM(B8:H8)/7</f>
-        <v>287.872828571429</v>
+        <v>289.401757142857</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>219.858</v>
       </c>
       <c r="K8" s="10" t="n">
         <f aca="false">(I8/J8-1)</f>
-        <v>0.309357988207973</v>
+        <v>0.316312152129361</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,36 +695,36 @@
         <v>15</v>
       </c>
       <c r="B9" s="7" t="n">
-        <v>142.74</v>
+        <v>136.975</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>358.131</v>
+        <v>371.051</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>254.001</v>
+        <v>232.408</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>282.154</v>
+        <v>264.224</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>306.993</v>
+        <v>322.459</v>
       </c>
       <c r="G9" s="8" t="n">
-        <v>52.3786</v>
+        <v>54.4784</v>
       </c>
       <c r="H9" s="7" t="n">
-        <v>224.103</v>
+        <v>223.221</v>
       </c>
       <c r="I9" s="9" t="n">
         <f aca="false">SUM(B9:H9)/7</f>
-        <v>231.500085714286</v>
+        <v>229.259485714286</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>177.084</v>
       </c>
       <c r="K9" s="10" t="n">
         <f aca="false">(I9/J9-1)</f>
-        <v>0.307289680119524</v>
+        <v>0.294636927753415</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,36 +745,36 @@
         <v>16</v>
       </c>
       <c r="B11" s="7" t="n">
-        <v>418.583</v>
+        <v>530.878</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>1227.37</v>
+        <v>1406.81</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>779.953</v>
+        <v>918.734</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>922.044</v>
+        <v>1066.86</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>956.28</v>
+        <v>1111.31</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>84.7484</v>
+        <v>132.946</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>707.969</v>
+        <v>821.328</v>
       </c>
       <c r="I11" s="9" t="n">
         <f aca="false">SUM(B11:H11)/7</f>
-        <v>728.135342857143</v>
+        <v>855.552285714286</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>659.6946</v>
       </c>
       <c r="K11" s="10" t="n">
         <f aca="false">(I11/J11-1)</f>
-        <v>0.103746101388647</v>
+        <v>0.296891449034577</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,36 +782,36 @@
         <v>17</v>
       </c>
       <c r="B12" s="7" t="n">
-        <v>550.737</v>
+        <v>648.232</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>1616.57</v>
+        <v>1788.12</v>
       </c>
       <c r="D12" s="7" t="n">
-        <v>1029.15</v>
+        <v>1157.43</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>1212.38</v>
+        <v>1354.24</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>1243.51</v>
+        <v>1391.77</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>100.877</v>
+        <v>149.949</v>
       </c>
       <c r="H12" s="7" t="n">
-        <v>921.015</v>
+        <v>1028.78</v>
       </c>
       <c r="I12" s="9" t="n">
         <f aca="false">SUM(B12:H12)/7</f>
-        <v>953.462714285715</v>
+        <v>1074.07442857143</v>
       </c>
       <c r="J12" s="4" t="n">
         <v>846.954</v>
       </c>
       <c r="K12" s="10" t="n">
         <f aca="false">(I12/J12-1)</f>
-        <v>0.125755016548378</v>
+        <v>0.268161468711912</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,36 +819,36 @@
         <v>18</v>
       </c>
       <c r="B13" s="7" t="n">
-        <v>430.123</v>
+        <v>524.384</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>1067.87</v>
+        <v>1182.3</v>
       </c>
       <c r="D13" s="7" t="n">
-        <v>665.729</v>
+        <v>769.648</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>742.922</v>
+        <v>844.954</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>769.729</v>
+        <v>876.194</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>101.038</v>
+        <v>148.575</v>
       </c>
       <c r="H13" s="7" t="n">
-        <v>652.018</v>
+        <v>730.027</v>
       </c>
       <c r="I13" s="9" t="n">
         <f aca="false">SUM(B13:H13)/7</f>
-        <v>632.775571428571</v>
+        <v>725.154571428571</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>575.9353</v>
       </c>
       <c r="K13" s="10" t="n">
         <f aca="false">(I13/J13-1)</f>
-        <v>0.098692112514325</v>
+        <v>0.259090337801089</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,36 +856,36 @@
         <v>19</v>
       </c>
       <c r="B14" s="7" t="n">
-        <v>315.735</v>
+        <v>348.242</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>845.44</v>
+        <v>887.254</v>
       </c>
       <c r="D14" s="7" t="n">
-        <v>608.245</v>
+        <v>572.789</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>704.971</v>
+        <v>633.804</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>693.173</v>
+        <v>772.193</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>102.519</v>
+        <v>143.482</v>
       </c>
       <c r="H14" s="7" t="n">
-        <v>490.239</v>
+        <v>566.501</v>
       </c>
       <c r="I14" s="9" t="n">
         <f aca="false">SUM(B14:H14)/7</f>
-        <v>537.188857142857</v>
+        <v>560.609285714286</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>452.7999</v>
       </c>
       <c r="K14" s="10" t="n">
         <f aca="false">(I14/J14-1)</f>
-        <v>0.186371412941693</v>
+        <v>0.238094985697403</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,36 +906,36 @@
         <v>20</v>
       </c>
       <c r="B16" s="7" t="n">
-        <v>53.7594</v>
+        <v>56.061</v>
       </c>
       <c r="C16" s="7" t="n">
-        <v>13.3196</v>
+        <v>13.6709</v>
       </c>
       <c r="D16" s="7" t="n">
-        <v>50.5561</v>
+        <v>52.6855</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>66.7031</v>
+        <v>70.7609</v>
       </c>
       <c r="F16" s="7" t="n">
-        <v>13.221</v>
+        <v>13.4807</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>33.0169</v>
+        <v>34.7922</v>
       </c>
       <c r="H16" s="7" t="n">
-        <v>15.4059</v>
+        <v>16.0886</v>
       </c>
       <c r="I16" s="9" t="n">
         <f aca="false">SUM(B16:H16)/7</f>
-        <v>35.1402857142857</v>
+        <v>36.7914</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>32.755</v>
       </c>
       <c r="K16" s="10" t="n">
         <f aca="false">(I16/J16-1)</f>
-        <v>0.0728220337135006</v>
+        <v>0.123230041215082</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -943,36 +943,36 @@
         <v>21</v>
       </c>
       <c r="B17" s="7" t="n">
-        <v>63.7554</v>
+        <v>66.3482</v>
       </c>
       <c r="C17" s="7" t="n">
-        <v>13.4668</v>
+        <v>15.1316</v>
       </c>
       <c r="D17" s="7" t="n">
-        <v>51.9746</v>
+        <v>53.5798</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>76.6906</v>
+        <v>78.6191</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>13.2969</v>
+        <v>14.5332</v>
       </c>
       <c r="G17" s="7" t="n">
-        <v>32.8347</v>
+        <v>35.6363</v>
       </c>
       <c r="H17" s="7" t="n">
-        <v>15.0232</v>
+        <v>16.4891</v>
       </c>
       <c r="I17" s="9" t="n">
         <f aca="false">SUM(B17:H17)/7</f>
-        <v>38.1488857142857</v>
+        <v>40.0481857142857</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>35.647</v>
       </c>
       <c r="K17" s="10" t="n">
         <f aca="false">(I17/J17-1)</f>
-        <v>0.0701850285938708</v>
+        <v>0.123465809585259</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -980,36 +980,36 @@
         <v>22</v>
       </c>
       <c r="B18" s="7" t="n">
-        <v>51.5902</v>
+        <v>53.2624</v>
       </c>
       <c r="C18" s="7" t="n">
-        <v>13.4857</v>
+        <v>14.9714</v>
       </c>
       <c r="D18" s="7" t="n">
-        <v>50.9976</v>
+        <v>52.3253</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>64.5491</v>
+        <v>66.492</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>13.2903</v>
+        <v>14.6157</v>
       </c>
       <c r="G18" s="7" t="n">
-        <v>32.8534</v>
+        <v>35.7627</v>
       </c>
       <c r="H18" s="7" t="n">
-        <v>15.1431</v>
+        <v>16.6865</v>
       </c>
       <c r="I18" s="9" t="n">
         <f aca="false">SUM(B18:H18)/7</f>
-        <v>34.5584857142857</v>
+        <v>36.3022857142857</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>32.238</v>
       </c>
       <c r="K18" s="10" t="n">
         <f aca="false">(I18/J18-1)</f>
-        <v>0.0719798285962441</v>
+        <v>0.126071273474959</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,36 +1017,36 @@
         <v>23</v>
       </c>
       <c r="B19" s="7" t="n">
-        <v>46.6697</v>
+        <v>56.8206</v>
       </c>
       <c r="C19" s="7" t="n">
-        <v>13.456</v>
+        <v>15.3319</v>
       </c>
       <c r="D19" s="7" t="n">
-        <v>50.5423</v>
+        <v>52.8259</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>60.1613</v>
+        <v>59.6181</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>13.3368</v>
+        <v>14.9402</v>
       </c>
       <c r="G19" s="7" t="n">
-        <v>32.8748</v>
+        <v>35.4614</v>
       </c>
       <c r="H19" s="7" t="n">
-        <v>15.1629</v>
+        <v>16.8492</v>
       </c>
       <c r="I19" s="9" t="n">
         <f aca="false">SUM(B19:H19)/7</f>
-        <v>33.1719714285714</v>
+        <v>35.9781857142857</v>
       </c>
       <c r="J19" s="4" t="n">
         <v>30.334</v>
       </c>
       <c r="K19" s="10" t="n">
         <f aca="false">(I19/J19-1)</f>
-        <v>0.0935574414377078</v>
+        <v>0.186067967109043</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,36 +1067,36 @@
         <v>24</v>
       </c>
       <c r="B21" s="7" t="n">
-        <v>66.277</v>
+        <v>73.8415</v>
       </c>
       <c r="C21" s="7" t="n">
-        <v>1.40294</v>
+        <v>1.38291</v>
       </c>
       <c r="D21" s="7" t="n">
-        <v>40.4301</v>
+        <v>42.8037</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>78.2746</v>
+        <v>87.9508</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>1.2222</v>
+        <v>1.12909</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>18.9204</v>
+        <v>19.7895</v>
       </c>
       <c r="H21" s="7" t="n">
-        <v>1.20918</v>
+        <v>1.17051</v>
       </c>
       <c r="I21" s="9" t="n">
         <f aca="false">SUM(B21:H21)/7</f>
-        <v>29.6766314285714</v>
+        <v>32.5811442857143</v>
       </c>
       <c r="J21" s="4" t="n">
         <v>24.95</v>
       </c>
       <c r="K21" s="10" t="n">
         <f aca="false">(I21/J21-1)</f>
-        <v>0.189444145433725</v>
+        <v>0.305857486401374</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1104,36 +1104,36 @@
         <v>25</v>
       </c>
       <c r="B22" s="7" t="n">
-        <v>89.8139</v>
+        <v>99.9549</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>1.82726</v>
+        <v>1.71404</v>
       </c>
       <c r="D22" s="7" t="n">
-        <v>43.294</v>
+        <v>44.4241</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>102.33</v>
+        <v>112.689</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>1.41173</v>
+        <v>1.39864</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>19.4268</v>
+        <v>20.2354</v>
       </c>
       <c r="H22" s="7" t="n">
-        <v>1.21889</v>
+        <v>1.22921</v>
       </c>
       <c r="I22" s="9" t="n">
         <f aca="false">SUM(B22:H22)/7</f>
-        <v>37.0460828571428</v>
+        <v>40.2350414285714</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>30.769</v>
       </c>
       <c r="K22" s="10" t="n">
         <f aca="false">(I22/J22-1)</f>
-        <v>0.204006722907564</v>
+        <v>0.307648653793475</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1141,36 +1141,36 @@
         <v>26</v>
       </c>
       <c r="B23" s="7" t="n">
-        <v>91.4626</v>
+        <v>93.3497</v>
       </c>
       <c r="C23" s="7" t="n">
-        <v>1.77795</v>
+        <v>1.77528</v>
       </c>
       <c r="D23" s="7" t="n">
-        <v>42.5935</v>
+        <v>44.1444</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>102.571</v>
+        <v>106.062</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>1.39226</v>
+        <v>1.42085</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>19.0477</v>
+        <v>19.8695</v>
       </c>
       <c r="H23" s="7" t="n">
-        <v>1.23216</v>
+        <v>1.24302</v>
       </c>
       <c r="I23" s="9" t="n">
         <f aca="false">SUM(B23:H23)/7</f>
-        <v>37.1538814285714</v>
+        <v>38.2663928571429</v>
       </c>
       <c r="J23" s="4" t="n">
         <v>31.314</v>
       </c>
       <c r="K23" s="10" t="n">
         <f aca="false">(I23/J23-1)</f>
-        <v>0.186494265458626</v>
+        <v>0.222021870637506</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,36 +1178,36 @@
         <v>27</v>
       </c>
       <c r="B24" s="7" t="n">
-        <v>64.8156</v>
+        <v>71.397</v>
       </c>
       <c r="C24" s="7" t="n">
-        <v>1.61135</v>
+        <v>1.52413</v>
       </c>
       <c r="D24" s="7" t="n">
-        <v>40.4773</v>
+        <v>42.6487</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>75.8823</v>
+        <v>84.6444</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>1.32199</v>
+        <v>1.27827</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>19.6086</v>
+        <v>20.0042</v>
       </c>
       <c r="H24" s="7" t="n">
-        <v>1.23155</v>
+        <v>1.21908</v>
       </c>
       <c r="I24" s="9" t="n">
         <f aca="false">SUM(B24:H24)/7</f>
-        <v>29.2783842857143</v>
+        <v>31.81654</v>
       </c>
       <c r="J24" s="4" t="n">
         <v>25.95</v>
       </c>
       <c r="K24" s="10" t="n">
         <f aca="false">(I24/J24-1)</f>
-        <v>0.128261436829067</v>
+        <v>0.226070905587669</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1337,36 +1337,36 @@
         <v>12</v>
       </c>
       <c r="B31" s="19" t="n">
-        <v>1318.68</v>
+        <v>1288.96</v>
       </c>
       <c r="C31" s="19" t="n">
-        <v>1207.51</v>
+        <v>1208.63</v>
       </c>
       <c r="D31" s="19" t="n">
-        <v>276.705</v>
+        <v>253.619</v>
       </c>
       <c r="E31" s="19" t="n">
-        <v>1836.93</v>
+        <v>1800.53</v>
       </c>
       <c r="F31" s="19" t="n">
-        <v>1118.96</v>
+        <v>1086.08</v>
       </c>
       <c r="G31" s="19" t="n">
-        <v>1286.9</v>
+        <v>1245.27</v>
       </c>
       <c r="H31" s="19" t="n">
-        <v>770.123</v>
+        <v>733.615</v>
       </c>
       <c r="I31" s="20" t="n">
         <f aca="false">SUM(B31:H31)/7</f>
-        <v>1116.544</v>
+        <v>1088.10057142857</v>
       </c>
       <c r="J31" s="21" t="n">
         <v>756.806</v>
       </c>
       <c r="K31" s="10" t="n">
         <f aca="false">(I31/J31-1)</f>
-        <v>0.475337140561782</v>
+        <v>0.437753626991027</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,36 +1374,36 @@
         <v>13</v>
       </c>
       <c r="B32" s="19" t="n">
-        <v>2894.22</v>
+        <v>2737.65</v>
       </c>
       <c r="C32" s="19" t="n">
-        <v>2678.52</v>
+        <v>2555.9</v>
       </c>
       <c r="D32" s="19" t="n">
-        <v>575.186</v>
+        <v>536.554</v>
       </c>
       <c r="E32" s="19" t="n">
-        <v>4423.69</v>
+        <v>4219.85</v>
       </c>
       <c r="F32" s="19" t="n">
-        <v>2608.76</v>
+        <v>2495.29</v>
       </c>
       <c r="G32" s="19" t="n">
-        <v>3203.47</v>
+        <v>3049.28</v>
       </c>
       <c r="H32" s="19" t="n">
-        <v>1816.07</v>
+        <v>1717.96</v>
       </c>
       <c r="I32" s="20" t="n">
         <f aca="false">SUM(B32:H32)/7</f>
-        <v>2599.988</v>
+        <v>2473.212</v>
       </c>
       <c r="J32" s="21" t="n">
         <v>1611.52</v>
       </c>
       <c r="K32" s="10" t="n">
         <f aca="false">(I32/J32-1)</f>
-        <v>0.613376191421763</v>
+        <v>0.534707605242256</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1411,36 +1411,36 @@
         <v>14</v>
       </c>
       <c r="B33" s="19" t="n">
-        <v>1697.07</v>
+        <v>1625.16</v>
       </c>
       <c r="C33" s="19" t="n">
-        <v>1732.36</v>
+        <v>1648.75</v>
       </c>
       <c r="D33" s="19" t="n">
-        <v>359.609</v>
+        <v>332.395</v>
       </c>
       <c r="E33" s="19" t="n">
-        <v>2616.28</v>
+        <v>2513.16</v>
       </c>
       <c r="F33" s="19" t="n">
-        <v>1538.56</v>
+        <v>1471.02</v>
       </c>
       <c r="G33" s="19" t="n">
-        <v>1878.25</v>
+        <v>1770.86</v>
       </c>
       <c r="H33" s="19" t="n">
-        <v>1136.72</v>
+        <v>1059.42</v>
       </c>
       <c r="I33" s="20" t="n">
         <f aca="false">SUM(B33:H33)/7</f>
-        <v>1565.54985714286</v>
+        <v>1488.68071428571</v>
       </c>
       <c r="J33" s="21" t="n">
         <v>1047.103</v>
       </c>
       <c r="K33" s="10" t="n">
         <f aca="false">(I33/J33-1)</f>
-        <v>0.495124984975553</v>
+        <v>0.421713732350795</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,36 +1448,36 @@
         <v>15</v>
       </c>
       <c r="B34" s="19" t="n">
-        <v>1379.97</v>
+        <v>1463.81</v>
       </c>
       <c r="C34" s="19" t="n">
-        <v>1312.5</v>
+        <v>1241.55</v>
       </c>
       <c r="D34" s="19" t="n">
-        <v>271.975</v>
+        <v>273.779</v>
       </c>
       <c r="E34" s="19" t="n">
-        <v>1923.87</v>
+        <v>1863.9</v>
       </c>
       <c r="F34" s="19" t="n">
-        <v>1092.92</v>
+        <v>1091.27</v>
       </c>
       <c r="G34" s="19" t="n">
-        <v>1256.04</v>
+        <v>1258.26</v>
       </c>
       <c r="H34" s="19" t="n">
-        <v>733.772</v>
+        <v>735.724</v>
       </c>
       <c r="I34" s="20" t="n">
         <f aca="false">SUM(B34:H34)/7</f>
-        <v>1138.721</v>
+        <v>1132.61328571429</v>
       </c>
       <c r="J34" s="21" t="n">
         <v>834.365</v>
       </c>
       <c r="K34" s="10" t="n">
         <f aca="false">(I34/J34-1)</f>
-        <v>0.364775607797547</v>
+        <v>0.35745541305578</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1498,36 +1498,36 @@
         <v>16</v>
       </c>
       <c r="B36" s="19" t="n">
-        <v>4236.25</v>
+        <v>4255.33</v>
       </c>
       <c r="C36" s="19" t="n">
-        <v>4478.41</v>
+        <v>4525.57</v>
       </c>
       <c r="D36" s="19" t="n">
-        <v>993.064</v>
+        <v>1017.83</v>
       </c>
       <c r="E36" s="19" t="n">
-        <v>6923.97</v>
+        <v>6987.2</v>
       </c>
       <c r="F36" s="19" t="n">
-        <v>4242.34</v>
+        <v>4273.47</v>
       </c>
       <c r="G36" s="19" t="n">
-        <v>4719.37</v>
+        <v>4765.74</v>
       </c>
       <c r="H36" s="19" t="n">
-        <v>2837.45</v>
+        <v>2852.56</v>
       </c>
       <c r="I36" s="20" t="n">
         <f aca="false">SUM(B36:H36)/7</f>
-        <v>4061.55057142857</v>
+        <v>4096.81428571429</v>
       </c>
       <c r="J36" s="21" t="n">
         <v>3248.979</v>
       </c>
       <c r="K36" s="10" t="n">
         <f aca="false">(I36/J36-1)</f>
-        <v>0.250100592040937</v>
+        <v>0.260954375425106</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,36 +1535,36 @@
         <v>17</v>
       </c>
       <c r="B37" s="19" t="n">
-        <v>5567.78</v>
+        <v>5472.08</v>
       </c>
       <c r="C37" s="19" t="n">
-        <v>5973.07</v>
+        <v>5878.08</v>
       </c>
       <c r="D37" s="19" t="n">
-        <v>1312.47</v>
+        <v>1296.94</v>
       </c>
       <c r="E37" s="19" t="n">
-        <v>9145.35</v>
+        <v>9054.03</v>
       </c>
       <c r="F37" s="19" t="n">
-        <v>5596.33</v>
+        <v>5546.09</v>
       </c>
       <c r="G37" s="19" t="n">
-        <v>6206.26</v>
+        <v>6129.59</v>
       </c>
       <c r="H37" s="19" t="n">
-        <v>3696.56</v>
+        <v>3677.53</v>
       </c>
       <c r="I37" s="20" t="n">
         <f aca="false">SUM(B37:H37)/7</f>
-        <v>5356.83142857143</v>
+        <v>5293.47714285714</v>
       </c>
       <c r="J37" s="21" t="n">
         <v>4224.394</v>
       </c>
       <c r="K37" s="10" t="n">
         <f aca="false">(I37/J37-1)</f>
-        <v>0.268070977416271</v>
+        <v>0.253073729121181</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,36 +1572,36 @@
         <v>18</v>
       </c>
       <c r="B38" s="19" t="n">
-        <v>3411.59</v>
+        <v>3353.73</v>
       </c>
       <c r="C38" s="19" t="n">
-        <v>3872.34</v>
+        <v>3797.33</v>
       </c>
       <c r="D38" s="19" t="n">
-        <v>811.165</v>
+        <v>781.679</v>
       </c>
       <c r="E38" s="19" t="n">
-        <v>5549.51</v>
+        <v>5404.4</v>
       </c>
       <c r="F38" s="19" t="n">
-        <v>3400.43</v>
+        <v>3309.78</v>
       </c>
       <c r="G38" s="19" t="n">
-        <v>3823.94</v>
+        <v>3677.91</v>
       </c>
       <c r="H38" s="19" t="n">
-        <v>2333.27</v>
+        <v>2249.47</v>
       </c>
       <c r="I38" s="20" t="n">
         <f aca="false">SUM(B38:H38)/7</f>
-        <v>3314.60642857143</v>
+        <v>3224.89985714286</v>
       </c>
       <c r="J38" s="21" t="n">
         <v>2725.91</v>
       </c>
       <c r="K38" s="10" t="n">
         <f aca="false">(I38/J38-1)</f>
-        <v>0.215963266788496</v>
+        <v>0.183054413807814</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1609,36 +1609,36 @@
         <v>19</v>
       </c>
       <c r="B39" s="19" t="n">
-        <v>2817.75</v>
+        <v>2849.63</v>
       </c>
       <c r="C39" s="19" t="n">
-        <v>2844.02</v>
+        <v>2807.97</v>
       </c>
       <c r="D39" s="19" t="n">
-        <v>614.727</v>
+        <v>613.31</v>
       </c>
       <c r="E39" s="19" t="n">
-        <v>4294.77</v>
+        <v>4272.84</v>
       </c>
       <c r="F39" s="19" t="n">
-        <v>2479.65</v>
+        <v>2457.22</v>
       </c>
       <c r="G39" s="19" t="n">
-        <v>2843.91</v>
+        <v>2842.1</v>
       </c>
       <c r="H39" s="19" t="n">
-        <v>1666.73</v>
+        <v>1671.45</v>
       </c>
       <c r="I39" s="20" t="n">
         <f aca="false">SUM(B39:H39)/7</f>
-        <v>2508.79385714286</v>
+        <v>2502.07428571429</v>
       </c>
       <c r="J39" s="21" t="n">
         <v>2127.271</v>
       </c>
       <c r="K39" s="10" t="n">
         <f aca="false">(I39/J39-1)</f>
-        <v>0.1793484972732</v>
+        <v>0.176189721814609</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1659,36 +1659,36 @@
         <v>20</v>
       </c>
       <c r="B41" s="19" t="n">
-        <v>28.9469</v>
+        <v>29.1616</v>
       </c>
       <c r="C41" s="19" t="n">
-        <v>84.2316</v>
+        <v>83.7877</v>
       </c>
       <c r="D41" s="19" t="n">
-        <v>26.2019</v>
+        <v>26.6619</v>
       </c>
       <c r="E41" s="19" t="n">
-        <v>15.2111</v>
+        <v>15.2604</v>
       </c>
       <c r="F41" s="19" t="n">
-        <v>65.7192</v>
+        <v>65.7846</v>
       </c>
       <c r="G41" s="19" t="n">
-        <v>15.1539</v>
+        <v>15.2707</v>
       </c>
       <c r="H41" s="19" t="n">
-        <v>40.5928</v>
+        <v>41.0693</v>
       </c>
       <c r="I41" s="20" t="n">
         <f aca="false">SUM(B41:H41)/7</f>
-        <v>39.4367714285714</v>
+        <v>39.5708857142857</v>
       </c>
       <c r="J41" s="21" t="n">
         <v>34.903</v>
       </c>
       <c r="K41" s="10" t="n">
         <f aca="false">(I41/J41-1)</f>
-        <v>0.12989632491681</v>
+        <v>0.13373881082674</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1696,36 +1696,36 @@
         <v>21</v>
       </c>
       <c r="B42" s="19" t="n">
-        <v>29.6341</v>
+        <v>30.6488</v>
       </c>
       <c r="C42" s="19" t="n">
-        <v>107.602</v>
+        <v>104.205</v>
       </c>
       <c r="D42" s="19" t="n">
-        <v>26.9306</v>
+        <v>27.777</v>
       </c>
       <c r="E42" s="19" t="n">
-        <v>15.9585</v>
+        <v>15.3616</v>
       </c>
       <c r="F42" s="19" t="n">
-        <v>77.267</v>
+        <v>75.2145</v>
       </c>
       <c r="G42" s="19" t="n">
-        <v>15.8079</v>
+        <v>15.2923</v>
       </c>
       <c r="H42" s="19" t="n">
-        <v>41.7289</v>
+        <v>41.443</v>
       </c>
       <c r="I42" s="20" t="n">
         <f aca="false">SUM(B42:H42)/7</f>
-        <v>44.9898571428571</v>
+        <v>44.2774571428572</v>
       </c>
       <c r="J42" s="21" t="n">
         <v>38.872</v>
       </c>
       <c r="K42" s="10" t="n">
         <f aca="false">(I42/J42-1)</f>
-        <v>0.157384676447241</v>
+        <v>0.139057860229912</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,36 +1733,36 @@
         <v>22</v>
       </c>
       <c r="B43" s="19" t="n">
-        <v>28.2214</v>
+        <v>29.5315</v>
       </c>
       <c r="C43" s="19" t="n">
-        <v>84.6601</v>
+        <v>76.2649</v>
       </c>
       <c r="D43" s="19" t="n">
-        <v>26.3629</v>
+        <v>27.829</v>
       </c>
       <c r="E43" s="19" t="n">
-        <v>16.0501</v>
+        <v>15.4053</v>
       </c>
       <c r="F43" s="19" t="n">
-        <v>64.6329</v>
+        <v>61.9887</v>
       </c>
       <c r="G43" s="19" t="n">
-        <v>15.6258</v>
+        <v>15.4021</v>
       </c>
       <c r="H43" s="19" t="n">
-        <v>41.5668</v>
+        <v>41.1693</v>
       </c>
       <c r="I43" s="20" t="n">
         <f aca="false">SUM(B43:H43)/7</f>
-        <v>39.5885714285714</v>
+        <v>38.2272571428571</v>
       </c>
       <c r="J43" s="21" t="n">
         <v>33.647</v>
       </c>
       <c r="K43" s="10" t="n">
         <f aca="false">(I43/J43-1)</f>
-        <v>0.176585473551028</v>
+        <v>0.136126761460372</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1770,36 +1770,36 @@
         <v>23</v>
       </c>
       <c r="B44" s="19" t="n">
-        <v>27.4763</v>
+        <v>29.5589</v>
       </c>
       <c r="C44" s="19" t="n">
-        <v>62.8358</v>
+        <v>61.5208</v>
       </c>
       <c r="D44" s="19" t="n">
-        <v>26.4739</v>
+        <v>27.5151</v>
       </c>
       <c r="E44" s="19" t="n">
-        <v>15.7802</v>
+        <v>15.4433</v>
       </c>
       <c r="F44" s="19" t="n">
-        <v>57.1027</v>
+        <v>55.4061</v>
       </c>
       <c r="G44" s="19" t="n">
-        <v>15.9782</v>
+        <v>15.2866</v>
       </c>
       <c r="H44" s="19" t="n">
-        <v>41.6508</v>
+        <v>40.9292</v>
       </c>
       <c r="I44" s="20" t="n">
         <f aca="false">SUM(B44:H44)/7</f>
-        <v>35.3282714285714</v>
+        <v>35.0942857142857</v>
       </c>
       <c r="J44" s="21" t="n">
         <v>31.225</v>
       </c>
       <c r="K44" s="10" t="n">
         <f aca="false">(I44/J44-1)</f>
-        <v>0.131409813565138</v>
+        <v>0.123916275877845</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,36 +1819,36 @@
         <v>24</v>
       </c>
       <c r="B46" s="19" t="n">
-        <v>24.2205</v>
+        <v>24.4145</v>
       </c>
       <c r="C46" s="19" t="n">
-        <v>232.646</v>
+        <v>234.715</v>
       </c>
       <c r="D46" s="19" t="n">
-        <v>12.4355</v>
+        <v>12.3059</v>
       </c>
       <c r="E46" s="19" t="n">
-        <v>3.03148</v>
+        <v>2.8444</v>
       </c>
       <c r="F46" s="19" t="n">
-        <v>119.522</v>
+        <v>120.753</v>
       </c>
       <c r="G46" s="19" t="n">
-        <v>2.64995</v>
+        <v>2.75857</v>
       </c>
       <c r="H46" s="19" t="n">
-        <v>29.8476</v>
+        <v>29.8878</v>
       </c>
       <c r="I46" s="20" t="n">
         <f aca="false">SUM(B46:H46)/7</f>
-        <v>60.6218614285714</v>
+        <v>61.0970242857143</v>
       </c>
       <c r="J46" s="21" t="n">
         <v>47.322</v>
       </c>
       <c r="K46" s="10" t="n">
         <f aca="false">(I46/J46-1)</f>
-        <v>0.281050281656976</v>
+        <v>0.291091337764978</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1856,36 +1856,36 @@
         <v>25</v>
       </c>
       <c r="B47" s="19" t="n">
-        <v>30.6106</v>
+        <v>30.5561</v>
       </c>
       <c r="C47" s="19" t="n">
-        <v>369.935</v>
+        <v>368.792</v>
       </c>
       <c r="D47" s="19" t="n">
-        <v>12.5343</v>
+        <v>12.573</v>
       </c>
       <c r="E47" s="19" t="n">
-        <v>3.12591</v>
+        <v>2.93205</v>
       </c>
       <c r="F47" s="19" t="n">
-        <v>179.135</v>
+        <v>177.644</v>
       </c>
       <c r="G47" s="19" t="n">
-        <v>2.92352</v>
+        <v>30.1198</v>
       </c>
       <c r="H47" s="19" t="n">
-        <v>31.1062</v>
+        <v>31.0501</v>
       </c>
       <c r="I47" s="20" t="n">
         <f aca="false">SUM(B47:H47)/7</f>
-        <v>89.9100757142857</v>
+        <v>93.3810071428571</v>
       </c>
       <c r="J47" s="21" t="n">
         <v>69.091</v>
       </c>
       <c r="K47" s="10" t="n">
         <f aca="false">(I47/J47-1)</f>
-        <v>0.301328330958963</v>
+        <v>0.35156543027105</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1893,36 +1893,36 @@
         <v>26</v>
       </c>
       <c r="B48" s="19" t="n">
-        <v>30.9394</v>
+        <v>29.3571</v>
       </c>
       <c r="C48" s="19" t="n">
-        <v>362.365</v>
+        <v>358.75</v>
       </c>
       <c r="D48" s="19" t="n">
-        <v>12.6097</v>
+        <v>12.3944</v>
       </c>
       <c r="E48" s="19" t="n">
-        <v>3.18895</v>
+        <v>2.95322</v>
       </c>
       <c r="F48" s="19" t="n">
-        <v>173.331</v>
+        <v>172.326</v>
       </c>
       <c r="G48" s="19" t="n">
-        <v>2.86176</v>
+        <v>2.94869</v>
       </c>
       <c r="H48" s="19" t="n">
-        <v>31.0329</v>
+        <v>30.8406</v>
       </c>
       <c r="I48" s="20" t="n">
         <f aca="false">SUM(B48:H48)/7</f>
-        <v>88.0469585714286</v>
+        <v>87.08143</v>
       </c>
       <c r="J48" s="21" t="n">
         <v>70.749</v>
       </c>
       <c r="K48" s="10" t="n">
         <f aca="false">(I48/J48-1)</f>
-        <v>0.244497569879837</v>
+        <v>0.230850330040001</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1930,36 +1930,36 @@
         <v>27</v>
       </c>
       <c r="B49" s="19" t="n">
-        <v>28.786</v>
+        <v>24.1768</v>
       </c>
       <c r="C49" s="19" t="n">
-        <v>251.611</v>
+        <v>276.961</v>
       </c>
       <c r="D49" s="19" t="n">
-        <v>12.6573</v>
+        <v>12.7148</v>
       </c>
       <c r="E49" s="19" t="n">
-        <v>3.26295</v>
+        <v>3.04629</v>
       </c>
       <c r="F49" s="19" t="n">
-        <v>127.417</v>
+        <v>126.212</v>
       </c>
       <c r="G49" s="19" t="n">
-        <v>2.92899</v>
+        <v>2.985</v>
       </c>
       <c r="H49" s="19" t="n">
-        <v>30.6671</v>
+        <v>30.1236</v>
       </c>
       <c r="I49" s="20" t="n">
         <f aca="false">SUM(B49:H49)/7</f>
-        <v>65.3329057142857</v>
+        <v>68.0313557142857</v>
       </c>
       <c r="J49" s="21" t="n">
         <v>53.283</v>
       </c>
       <c r="K49" s="10" t="n">
         <f aca="false">(I49/J49-1)</f>
-        <v>0.226149160412997</v>
+        <v>0.276792892935565</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
